--- a/hold28-29.xlsx
+++ b/hold28-29.xlsx
@@ -19,14 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t> </t>
   </si>
   <si>
-    <t>"6 (X 2+2; Y 2)"</t>
-  </si>
-  <si>
     <t>Значение параметров</t>
   </si>
   <si>
@@ -45,22 +42,10 @@
     <t>Ширина заготовки:</t>
   </si>
   <si>
-    <t>Шпиндели для сверления:</t>
-  </si>
-  <si>
-    <t>вертикальных отверстий</t>
-  </si>
-  <si>
-    <t>горизонтальных отверстий</t>
-  </si>
-  <si>
     <t>минимальная</t>
   </si>
   <si>
     <t>максимальная</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12 (1 нижняя присадочная  группа)</t>
   </si>
 </sst>
 </file>
@@ -91,7 +76,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -143,19 +128,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -177,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -190,7 +162,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -481,7 +452,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,16 +463,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>3</v>
+      <c r="A1" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -509,68 +480,48 @@
     </row>
     <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="A7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>6</v>
-      </c>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
